--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t xml:space="preserve">non référencé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">av</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architrave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantin-Latour – Scholderer</t>
   </si>
 </sst>
 </file>
@@ -294,31 +306,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,14 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,7 +422,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="30.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="3" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,15 +490,15 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -494,10 +506,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -522,15 +534,15 @@
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -557,6 +569,28 @@
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">fr</t>
   </si>
   <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
     <t xml:space="preserve">filter_ref</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">base de données</t>
   </si>
   <si>
+    <t xml:space="preserve">data base</t>
+  </si>
+  <si>
     <t xml:space="preserve">refs</t>
   </si>
   <si>
@@ -61,16 +67,31 @@
     <t xml:space="preserve">bases de données</t>
   </si>
   <si>
+    <t xml:space="preserve">data bases</t>
+  </si>
+  <si>
     <t xml:space="preserve">or</t>
   </si>
   <si>
-    <t xml:space="preserve">OwnReality</t>
+    <t xml:space="preserve">OwnReality.  Jedem seine Wirklichkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OwnReality. À chacun son réel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OwnReality. To Each His Own Reality</t>
   </si>
   <si>
     <t xml:space="preserve">pb</t>
   </si>
   <si>
-    <t xml:space="preserve">Palais Beauharnais</t>
+    <t xml:space="preserve">Palais Beauharnais – Vollständiges Inventar der Möbel, Bronzen, Gemälde und anderer Gegenstände</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palais Beauharnais – Inventaire complet des meubles, bronzes, tableaux et autres objets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palais Beauharnais – full inventory of the furniture, bronzes, paintings and other objects</t>
   </si>
   <si>
     <t xml:space="preserve">dfkv</t>
@@ -82,39 +103,12 @@
     <t xml:space="preserve">La réception artistique franco-allemande de 1870-1960 </t>
   </si>
   <si>
+    <t xml:space="preserve">german and french reception of art between 1870 and 1960</t>
+  </si>
+  <si>
     <t xml:space="preserve">wikidata</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Wik</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF4500"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">data</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Wikidata</t>
   </si>
   <si>
@@ -125,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">résultats trouvés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findings</t>
   </si>
   <si>
     <t xml:space="preserve">result</t>
@@ -172,6 +169,9 @@
     <t xml:space="preserve">Recherche plein texte d’un nom ou du numéro d’un élément Wikidata</t>
   </si>
   <si>
+    <t xml:space="preserve">full text search or Wikidata item</t>
+  </si>
+  <si>
     <t xml:space="preserve">selection</t>
   </si>
   <si>
@@ -181,6 +181,9 @@
     <t xml:space="preserve">Votre sélection</t>
   </si>
   <si>
+    <t xml:space="preserve">your selection</t>
+  </si>
+  <si>
     <t xml:space="preserve">no_reference</t>
   </si>
   <si>
@@ -190,16 +193,37 @@
     <t xml:space="preserve">non référencé</t>
   </si>
   <si>
+    <t xml:space="preserve">not referenced</t>
+  </si>
+  <si>
     <t xml:space="preserve">av</t>
   </si>
   <si>
-    <t xml:space="preserve">Architrave</t>
+    <t xml:space="preserve">Architrave – Kunst und Architektur in Paris und Versailles im Spiegel deutscher Reiseberichte des Barock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architrave – Art et architecture à Paris et Versailles dans les récits de voyageurs allemands à l’époque baroque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architrave – arts and architecture in Paris and Versailles in accounts by Baroque-Era German travellers</t>
   </si>
   <si>
     <t xml:space="preserve">fs</t>
   </si>
   <si>
-    <t xml:space="preserve">Fantin-Latour – Scholderer</t>
+    <t xml:space="preserve">Briefwechsel zwischen Henri Fantin-Latour und Otto Scholderer, 1858–1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correspondence between Henri Fantin-Latour and Otto Scholderer, 1858-1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suche nach Personen (Künstler/innen, Kunsthistoriker/innen, Kurator/innen u.a.), die in den Datensammlungen des DFK Paris erfasst worden sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche de personnes (artistes, historiens de l'art, commissaires d'exposition, etc.) recensées dans les collections de données du DFK Paris.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for people (artists, art historians, curators, etc.) listed in the DFK Paris data collections.</t>
   </si>
 </sst>
 </file>
@@ -209,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -240,31 +264,37 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF1493"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF4500"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF1493"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -301,7 +331,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,19 +348,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,10 +429,10 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF7FFF00"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF4500"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -407,14 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,148 +491,201 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
+      <c r="A9" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
+      <c r="A10" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
+      <c r="A11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -217,13 +217,47 @@
     <t xml:space="preserve">Correspondence between Henri Fantin-Latour and Otto Scholderer, 1858-1902</t>
   </si>
   <si>
-    <t xml:space="preserve">Suche nach Personen (Künstler/innen, Kunsthistoriker/innen, Kurator/innen u.a.), die in den Datensammlungen des DFK Paris erfasst worden sind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche de personnes (artistes, historiens de l'art, commissaires d'exposition, etc.) recensées dans les collections de données du DFK Paris.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search for people (artists, art historians, curators, etc.) listed in the DFK Paris data collections.</t>
+    <t xml:space="preserve">help_intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Die "Suche nach Personen in den Datenangeboten des DFK Paris" ist ein zentraler Einstiegspunkt, mit dem über alle Datenbanken hinweg der Zugriff auf Materialien und Informationen zu einer Person eröffnet wird. Die Liste der genannten Personen umfasst alle (nach Kenntnis der jeweiligen Projektbearbeiter/-innen) in der Quelle zitierten Personennamen, meist in der Schreibweise des Quelltextes. Die Personen wurden 2021–2022 soweit möglich mit Normdaten referenziert. &lt;br&gt; Im Zuge dieser Arbeiten wurden auch soweit möglich Namen, die in verschiedenen Schreibweisen vorliegen zusammengeführt. Entsprechend kann es leichte Abweichungen zwischen der Schreibweise auf dieser Seite und in den einzelnen Datenbanken und -sammlungen geben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Resultate werden pro Buchstabe angezeigt und gezählt. Dabei bezieht sich die Anzahl jeweils auf den fettgesetzten und unterstrichenen Buchstaben. Ein Eintrag mit Vor- und Nachnae erscheint entsprechend unter den beiden initialen Buchstaben. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_dfkID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die auf den Namen folgende DFK-ID ist eine über alle Datenangebote des DFK hinweg greifende Identifikationsnummer. Sie kann als Wert der Eigenschaft „DFK Paris person ID“ (P12399) in Wikidata eingegeben werden, um zum Eintrag uaf dieser Seite zu gelangen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Datenbanken und -sammlungen sind Ergebnisse unterschiedlicher Forschungen am DFK Paris, in denen aus jeweils eigener Perspektive Personen erfasst wurden. Je nach Forschungsobjekt verbinden sich mit den Personen Referenzen auf zeitgenössische Quellen, kunsthistorische Arbeiten oder auch Hinweise auf Beiträge zum Kunstschaffen der Person. Mit Auswahl einer oder mehrerer der Datenbanken oder -sammlungen schränkt sich die Suche auf diese ein. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_search_feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Suche fragt alle Namen aus den links aufgelisteten Datenbanken und -sammlungen ab, die eine Identifikation ermöglichen. Nicht aufgenommen wurden in die zentrale Suche solche Nennungen, die z.B. nur aus Initialien bestehen. Um zwei zusammengehörende Begriffe (meist also Vor- und Nachname) zu suchen ist „Begriff1 +Begriff2“ einzugeben. OR, AND und UND werden nicht als Operatoren erkannt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_authorship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die zentrale Personensuche und die damit verbundenen Zusammenführungen wurden 2021-2022 unter der Leitung von Anne Klammt vorgenommen. Die Inhalte der Datenbanken sind jeweils von den verschiedenen Forscher*innen verantwortet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">help_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Daten werden </t>
   </si>
 </sst>
 </file>
@@ -233,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -264,12 +298,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -277,13 +305,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF1493"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF1493"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -331,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -348,23 +377,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,8 +389,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -455,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -519,7 +536,7 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -544,7 +561,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -552,24 +569,24 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -580,7 +597,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -594,13 +611,13 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -608,13 +625,13 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -642,7 +659,7 @@
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -677,17 +694,66 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="10" t="s">
+    <row r="16" customFormat="false" ht="292.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="143" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="159.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -106,6 +106,69 @@
     <t xml:space="preserve">german and french reception of art between 1870 and 1960</t>
   </si>
   <si>
+    <t xml:space="preserve">babue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bildarchiv Bühler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archives documentaires et photographiques Hans-Peter Bühler sur la peinture du 19 et 20ème siècles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Picture archive Hans-Peter Bühler on 19</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and 20</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> century painting</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">wikidata</t>
   </si>
   <si>
@@ -220,44 +283,186 @@
     <t xml:space="preserve">help_intro</t>
   </si>
   <si>
-    <t xml:space="preserve">    Die "Suche nach Personen in den Datenangeboten des DFK Paris" ist ein zentraler Einstiegspunkt, mit dem über alle Datenbanken hinweg der Zugriff auf Materialien und Informationen zu einer Person eröffnet wird. Die Liste der genannten Personen umfasst alle (nach Kenntnis der jeweiligen Projektbearbeiter/-innen) in der Quelle zitierten Personennamen, meist in der Schreibweise des Quelltextes. Die Personen wurden 2021–2022 soweit möglich mit Normdaten referenziert. &lt;br&gt; Im Zuge dieser Arbeiten wurden auch soweit möglich Namen, die in verschiedenen Schreibweisen vorliegen zusammengeführt. Entsprechend kann es leichte Abweichungen zwischen der Schreibweise auf dieser Seite und in den einzelnen Datenbanken und -sammlungen geben.</t>
+    <t xml:space="preserve">Die Personensuche ermöglicht die übergreifende Recherche in allen Datenangeboten und eröffnet somit einen zentralen Einstieg in die Projekte des DFK&amp;nbsp;Paris. Die einzelnen Datenbanken und  sammlungen sind unabhängig voneinander entstanden und entsprechend in ihren Zielen und Formaten nicht vergleichbar. Gemeinsam ist ihnen, dass Personen erfasst und projektbezogen ausgezeichnet wurden. Je nach Forschungsobjekt verbinden sich mit den Personen Referenzen auf zeitgenössische Quellen oder kunsthistorische Arbeiten. Biographische Daten sind nicht gesammelt worden.
+Die Suche erfolgt nur für jene Namen, für die eine Identifikation vorgenommen werden konnte. Entsprechend sind etwa Nennungen, die nur aus zwei Initialen bestehen, hier nicht recherchierbar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Person Search feature enables comprehensive research in all data inventories and thus opens up a central access point into the projects of the DFK Paris. The individual databases and data collections were created independently of one another and are therefore not comparable in terms of their goals and formats. Common among them is the recognition and awarding of project-related awards to persons. Depending on the object of study, references to contemporary sources or art-historical works are associated with such persons. No biographical data has been collected.
+The search is only carried out for those names for which an identification could be made. Accordingly, designations that consist of only two initials cannot be searched here.
+</t>
   </si>
   <si>
     <t xml:space="preserve">help_result</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Resultate werden pro Buchstabe angezeigt und gezählt. Dabei bezieht sich die Anzahl jeweils auf den fettgesetzten und unterstrichenen Buchstaben. Ein Eintrag mit Vor- und Nachnae erscheint entsprechend unter den beiden initialen Buchstaben. </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Zahlreiche Personen sind mit mehr als einer Namensvariante eingetragen worden. Wo dies im Zuge der Aufbereitung der Daten erkannt wurde, sind alle Namensformen erhalten geblieben, aber jeweils unter einer DFK&amp;nbsp;Paris Personen-ID zusammengeführt. Dies gilt auch für Aliasnamen sowie Übersetzungen (</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gräfin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> und </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duchesse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Numerous people have been entered with more than one variant to their name. In cases where this was known in the course of processing the data, all forms of the name have been retained and merged under a DFK Paris Person ID. This also applies to aliases and translations (i.e. </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gräfin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Duchesse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">).</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">help_dfkID</t>
   </si>
   <si>
-    <t xml:space="preserve">Die auf den Namen folgende DFK-ID ist eine über alle Datenangebote des DFK hinweg greifende Identifikationsnummer. Sie kann als Wert der Eigenschaft „DFK Paris person ID“ (P12399) in Wikidata eingegeben werden, um zum Eintrag uaf dieser Seite zu gelangen.</t>
+    <t xml:space="preserve">Die Zusammenführung der Einträge wurde 2022 durchgeführt. Die Referenzierung auf Wikidata wurde für die Projekte [Architrave](https://www.architrave.eu/index.html) und [Wissenschaftliche Bearbeitung des Palais Beauharnais](https://dfk-paris.org/de/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html) von den Forscher/innen selbst durchgeführt, für die [Korrespondenz Fantin-Latour und Scholderer](https://www.quellen-perspectivia.net/de/fantin-scholderer/introduction)hat dies die Redaktion von Perspektivia.net vorgenommen. Für [OwnReality. Jedem seine Realität](https://dfk-paris.org/de/ownreality) und die [Datenbanken der Deutsch-Französischen Kunstvermittlung](https://dfk-paris.org/de/page/deutsch-franzoesische_kunstvermittlung_1870%E2%80%931940_und_1945%E2%80%931960-2389.html) erfolgte die Referenzierung im Projekt [Datenkuration](https://dfk-paris.org/de/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The entries were merged in 2022. For the projects [Architrave](https://www.architrave.eu/index.html) and [Wissenschaftliche Bearbeitung des Palais Beauharnais](https://dfk-paris.org/de/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html), referencing to Wikidata was carried out by the researchers themselves; for the project [Correspondence between Henri Fantin-Latour and Otto Scholderer](https://www.quellen-perspectivia.net/en/fantin-scholderer/introduction), it was performed by the editors of Perspektivia.net. For [OwnReality. To Each His Own Reality](https://dfk-paris.org/en/ownreality) and the [Datenbanken der Deutsch-Französischen Kunstvermittlung](https://dfk-paris.org/de/page/deutsch-franzoesische_kunstvermittlung_1870%E2%80%931940_und_1945%E2%80%931960-2389.html), the referencing took place in the context of the project [Data Curation](https://dfk-paris.org/en/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871).</t>
   </si>
   <si>
     <t xml:space="preserve">help_databases</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Datenbanken und -sammlungen sind Ergebnisse unterschiedlicher Forschungen am DFK Paris, in denen aus jeweils eigener Perspektive Personen erfasst wurden. Je nach Forschungsobjekt verbinden sich mit den Personen Referenzen auf zeitgenössische Quellen, kunsthistorische Arbeiten oder auch Hinweise auf Beiträge zum Kunstschaffen der Person. Mit Auswahl einer oder mehrerer der Datenbanken oder -sammlungen schränkt sich die Suche auf diese ein. </t>
+    <t xml:space="preserve">Im Suchschlitz können der Name oder die Wikidata-Entitätsnummer (z.&amp;nbsp;B. Q1234) eingegeben werden. Um zwei zusammengehörige Begriffe (meist Vor  und Nachname) zu suchen, ist ein »+« zwischen dem ersten und dem zweiten Begriff anzugeben (Beispiel: »Alvar +Aalto« findet nur »Alvar Aalto«, aber »Alvar + Aalto« alle Namen, die mindestens eine der beiden Komponenten enthalten).  Mit einem Stern kann eine Wildcard eingesetzt werden (»Alva*« findet alle Namen, die mit »Alva« beginnen).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the search field, the name or Wikidata identifier (e.g. Q1234) must be entered. To search for two related terms (usually first and last name), enter a plus sign (+) between the first and second term (for example: “Alvar +Aalto” would only locate “Alvar Aalto,” but “Alvar + Aalto” would locate all names containing at least one of the two components). An asterisk can be used as a wildcard (“Alva*” finds all names beginning with “Alva”).</t>
   </si>
   <si>
     <t xml:space="preserve">help_search_feature</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Suche fragt alle Namen aus den links aufgelisteten Datenbanken und -sammlungen ab, die eine Identifikation ermöglichen. Nicht aufgenommen wurden in die zentrale Suche solche Nennungen, die z.B. nur aus Initialien bestehen. Um zwei zusammengehörende Begriffe (meist also Vor- und Nachname) zu suchen ist „Begriff1 +Begriff2“ einzugeben. OR, AND und UND werden nicht als Operatoren erkannt.
-</t>
+    <t xml:space="preserve">Die Resultate werden pro Initiale angezeigt und gezählt. Dabei bezieht sich die Anzahl jeweils auf die fett gesetzte und unterstrichene Initiale. Jedes Resultat weist eine DFK&amp;nbsp;Paris Personen-ID auf und führt anschließend die Verweise in den Datenangeboten auf. Dabei kann es mehrere Einträge pro Datenangebot geben, die meist auf verschiedene Schreibweisen in den Quellen zurückgehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The results are displayed and counted per initial. The number refers to the initial that is bolded and underlined. Each result has a DFK Paris Person ID and lists the references in the data inventories. There can be several entries per data inventory, usually due to different spellings in the sources.</t>
   </si>
   <si>
     <t xml:space="preserve">help_authorship</t>
   </si>
   <si>
-    <t xml:space="preserve">Die zentrale Personensuche und die damit verbundenen Zusammenführungen wurden 2021-2022 unter der Leitung von Anne Klammt vorgenommen. Die Inhalte der Datenbanken sind jeweils von den verschiedenen Forscher*innen verantwortet.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Die Daten können als Text-Datei über das Github-Repositorium des DFK&amp;nbsp;Paris zur freien Nutzung heruntergeladen werden [Link zu den Daten](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). Weiterhin können alle mit Wikidata referenzierten Einträge über die Eigenschaft [P11239](https://www.wikidata.org/wiki/Property:P11239&gt; dort abgefragt werden) ([Link zur Abfrage](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://w.wiki/67yh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The data can be downloaded as a text file from the GitHub repository of the DFK Paris for free use ([link to data](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). In addition, all entries referenced with Wikidata can be queried there via the property [P11239](https://www.wikidata.org/wiki/Property:P11239) ([link to the query](https://w.wiki/67yh)).</t>
   </si>
   <si>
     <t xml:space="preserve">help_data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Daten werden </t>
   </si>
 </sst>
 </file>
@@ -267,7 +472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -304,15 +509,45 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF1493"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF1493"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -389,7 +624,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,22 +701,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -540,7 +775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -554,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -568,7 +803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -582,7 +817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -590,24 +825,24 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,35 +852,35 @@
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -659,28 +894,28 @@
       <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -691,141 +926,101 @@
         <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="292.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="344.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="143" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="371.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="159.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="146.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" display="https://dfk-paris.org/en/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871"/>
+    <hyperlink ref="B22" r:id="rId2" display="https://w.wiki/67yh"/>
+    <hyperlink ref="D22" r:id="rId3" display="https://w.wiki/67yh"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -115,58 +115,7 @@
     <t xml:space="preserve">Archives documentaires et photographiques Hans-Peter Bühler sur la peinture du 19 et 20ème siècles</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Picture archive Hans-Peter Bühler on 19</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and 20</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> century painting</t>
-    </r>
+    <t xml:space="preserve">Picture archive Hans-Peter Bühler on 19th and 20th century painting</t>
   </si>
   <si>
     <t xml:space="preserve">wikidata</t>
@@ -199,34 +148,7 @@
     <t xml:space="preserve">search_prompt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Freitextsuche</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF1493"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Namen oder Nummer des Wikidata Items</t>
-    </r>
+    <t xml:space="preserve">Freitextsuche: Namen oder Nummer des Wikidata Items</t>
   </si>
   <si>
     <t xml:space="preserve">Recherche plein texte d’un nom ou du numéro d’un élément Wikidata</t>
@@ -283,12 +205,19 @@
     <t xml:space="preserve">help_intro</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Personensuche ermöglicht die übergreifende Recherche in allen Datenangeboten und eröffnet somit einen zentralen Einstieg in die Projekte des DFK&amp;nbsp;Paris. Die einzelnen Datenbanken und  sammlungen sind unabhängig voneinander entstanden und entsprechend in ihren Zielen und Formaten nicht vergleichbar. Gemeinsam ist ihnen, dass Personen erfasst und projektbezogen ausgezeichnet wurden. Je nach Forschungsobjekt verbinden sich mit den Personen Referenzen auf zeitgenössische Quellen oder kunsthistorische Arbeiten. Biographische Daten sind nicht gesammelt worden.
+    <t xml:space="preserve">## Übersicht
+Die Personensuche ermöglicht die übergreifende Recherche in allen Datenangeboten und eröffnet somit einen zentralen Einstieg in die Projekte des DFK&amp;nbsp;Paris. Die einzelnen Datenbanken und  sammlungen sind unabhängig voneinander entstanden und entsprechend in ihren Zielen und Formaten nicht vergleichbar. Gemeinsam ist ihnen, dass Personen erfasst und projektbezogen ausgezeichnet wurden. Je nach Forschungsobjekt verbinden sich mit den Personen Referenzen auf zeitgenössische Quellen oder kunsthistorische Arbeiten. Biographische Daten sind nicht gesammelt worden.
 Die Suche erfolgt nur für jene Namen, für die eine Identifikation vorgenommen werden konnte. Entsprechend sind etwa Nennungen, die nur aus zwei Initialen bestehen, hier nicht recherchierbar.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The Person Search feature enables comprehensive research in all data inventories and thus opens up a central access point into the projects of the DFK Paris. The individual databases and data collections were created independently of one another and are therefore not comparable in terms of their goals and formats. Common among them is the recognition and awarding of project-related awards to persons. Depending on the object of study, references to contemporary sources or art-historical works are associated with such persons. No biographical data has been collected.
+    <t xml:space="preserve">## Principe général
+La recherche de personnes permet d’effectuer une recherche transversale dans toutes les offres de données, et constitue par là une porte d’entrée centrale dans les projets du DFK&amp;nbsp;Paris. Les différentes bases et collections de données ont été créées indépendamment les unes des autres et ne sont par conséquent pas comparables dans leurs objectifs comme dans leurs formats. Elles ont en revanche en commun de recenser des personnes, lesquelles sont caractérisées en fonction des projets de recherche qui les concernent. Selon le sujet de la recherche, les personnes sont associées à des sources contemporaines ou à des travaux d’histoire de l’art. Les données biographiques n’ont en revanche pas été collectées.
+La recherche n’est possible qu’avec les noms qui ont pu être identifiés, il n’est donc pas possible d’effectuer une recherche avec des dénominations composées seulement de deux initiales, par exemple.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Overview
+The Person Search feature enables comprehensive research in all data inventories and thus opens up a central access point into the projects of the DFK Paris. The individual databases and data collections were created independently of one another and are therefore not comparable in terms of their goals and formats. Common among them is the recognition and awarding of project-related awards to persons. Depending on the object of study, references to contemporary sources or art-historical works are associated with such persons. No biographical data has been collected.
 The search is only carried out for those names for which an identification could be made. Accordingly, designations that consist of only two initials cannot be searched here.
 </t>
   </si>
@@ -296,170 +225,76 @@
     <t xml:space="preserve">help_result</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Zahlreiche Personen sind mit mehr als einer Namensvariante eingetragen worden. Wo dies im Zuge der Aufbereitung der Daten erkannt wurde, sind alle Namensformen erhalten geblieben, aber jeweils unter einer DFK&amp;nbsp;Paris Personen-ID zusammengeführt. Dies gilt auch für Aliasnamen sowie Übersetzungen (</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Gräfin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> und </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Duchesse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Numerous people have been entered with more than one variant to their name. In cases where this was known in the course of processing the data, all forms of the name have been retained and merged under a DFK Paris Person ID. This also applies to aliases and translations (i.e. </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Gräfin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Duchesse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
+    <t xml:space="preserve">## Schreibweise und Aliasnamen
+Zahlreiche Personen sind mit mehr als einer Namensvariante eingetragen worden. Wo dies im Zuge der Aufbereitung der Daten erkannt wurde, sind alle Namensformen erhalten geblieben, aber jeweils unter einer DFK&amp;nbsp;Paris Personen-ID zusammengeführt. Dies gilt auch für Aliasnamen sowie Übersetzungen (Gräfin und Duchesse).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Variantes graphiques et pseudonymes
+De nombreuses personnes ont été entrées dans les bases de données avec plusieurs variantes de leur nom. Lorsque ce phénomène a été repéré au cours du traitement des données, toutes les variantes graphiques ont été conservées, mais elles sont toutes regroupées sous un même identifiant de personne du DFK&amp;nbsp;Paris. Cela vaut également pour les pseudonymes et les traductions de titres (exemple&amp;nbsp: Duchesse et Gräfin).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Spellings and Aliases
+Numerous people have been entered with more than one variant to their name. In cases where this was known in the course of processing the data, all forms of the name have been retained and merged under a DFK Paris Person ID. This also applies to aliases and translations (i.e. Gräfin and Duchesse).</t>
   </si>
   <si>
     <t xml:space="preserve">help_dfkID</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Zusammenführung der Einträge wurde 2022 durchgeführt. Die Referenzierung auf Wikidata wurde für die Projekte [Architrave](https://www.architrave.eu/index.html) und [Wissenschaftliche Bearbeitung des Palais Beauharnais](https://dfk-paris.org/de/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html) von den Forscher/innen selbst durchgeführt, für die [Korrespondenz Fantin-Latour und Scholderer](https://www.quellen-perspectivia.net/de/fantin-scholderer/introduction)hat dies die Redaktion von Perspektivia.net vorgenommen. Für [OwnReality. Jedem seine Realität](https://dfk-paris.org/de/ownreality) und die [Datenbanken der Deutsch-Französischen Kunstvermittlung](https://dfk-paris.org/de/page/deutsch-franzoesische_kunstvermittlung_1870%E2%80%931940_und_1945%E2%80%931960-2389.html) erfolgte die Referenzierung im Projekt [Datenkuration](https://dfk-paris.org/de/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The entries were merged in 2022. For the projects [Architrave](https://www.architrave.eu/index.html) and [Wissenschaftliche Bearbeitung des Palais Beauharnais](https://dfk-paris.org/de/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html), referencing to Wikidata was carried out by the researchers themselves; for the project [Correspondence between Henri Fantin-Latour and Otto Scholderer](https://www.quellen-perspectivia.net/en/fantin-scholderer/introduction), it was performed by the editors of Perspektivia.net. For [OwnReality. To Each His Own Reality](https://dfk-paris.org/en/ownreality) and the [Datenbanken der Deutsch-Französischen Kunstvermittlung](https://dfk-paris.org/de/page/deutsch-franzoesische_kunstvermittlung_1870%E2%80%931940_und_1945%E2%80%931960-2389.html), the referencing took place in the context of the project [Data Curation](https://dfk-paris.org/en/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871).</t>
+    <t xml:space="preserve">## Datenqualität und Wikidata
+Die Zusammenführung der Einträge wurde 2022 durchgeführt. Die Referenzierung auf Wikidata wurde für die Projekte [Architrave](https://www.architrave.eu/index.html) und [Wissenschaftliche Bearbeitung des Palais Beauharnais](https://dfk-paris.org/de/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html) von den Forscher/innen selbst durchgeführt, für die [Korrespondenz Fantin-Latour und Scholderer](https://www.quellen-perspectivia.net/de/fantin-scholderer/introduction)hat dies die Redaktion von [Perspektivia.net](https://perspectivia.net/content/index.xml;jsessionid=8CCB12811F7C18D621A9FADAC5AB7E30?lang=de) vorgenommen. Für [OwnReality. Jedem seine Realität](https://dfk-paris.org/de/ownreality) und die [Datenbanken der Deutsch-Französischen Kunstvermittlung](https://dfk-paris.org/de/page/deutsch-franzoesische_kunstvermittlung_1870%E2%80%931940_und_1945%E2%80%931960-2389.html) erfolgte die Referenzierung im Projekt [Datenkuration](https://dfk-paris.org/de/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Qualité des données et référencement sur Wikidata
+La fusion des entrées a été réalisée en 2022. Pour les projets [Architrave](https://www.architrave.eu/index.html) et [Recherches scientifiques sur l’hôtel de Beauharnais](https://dfk-paris.org/fr/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html), le référencement sur Wikidata a été pris en charge par les chercheuses et chercheurs eux-mêmes, tandis que pour la [correspondance de Fantin-Latour et Scholderer](https://www.quellen-perspectivia.net/fr/fantin-scholderer/introduction), il a été effectué par la rédaction de [Perspektivia.net](https://perspectivia.net/content/index.xml). Enfin, pour [OwnReality. À chacun son réel](https://dfk-paris.org/fr/ownreality) et pour la base de données sur la [réception artistique entre l’Allemagne et la France](https://dfk-paris.org/fr/page/reception_artistique_franco-allemande_de_1870-1960-2389.html), le référencement a été mené au sein du projet sur la [curation de données](https://dfk-paris.org/fr/research-project/curation-de-donnees-lexemple-de-la-base-de-donnees-deutsch-franzoesische).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Data Quality and Wikidata
+The entries were merged in 2022. For the projects [Architrave](https://www.architrave.eu/index.html) and [Wissenschaftliche Bearbeitung des Palais Beauharnais](https://dfk-paris.org/de/WissenschaftlicheBearbeitungdesPalaisBeauharnais/Datenbank.html), referencing to Wikidata was carried out by the researchers themselves; for the project [Correspondence between Henri Fantin-Latour and Otto Scholderer](https://www.quellen-perspectivia.net/en/fantin-scholderer/introduction), it was performed by the editors of [Perspektivia.net](https://perspectivia.net/content/index.xml;jsessionid=8CCB12811F7C18D621A9FADAC5AB7E30?lang=en). For [OwnReality. To Each His Own Reality](https://dfk-paris.org/en/ownreality) and the [Datenbanken der Deutsch-Französischen Kunstvermittlung](https://dfk-paris.org/de/page/deutsch-franzoesische_kunstvermittlung_1870%E2%80%931940_und_1945%E2%80%931960-2389.html), the referencing took place in the context of the project [Data Curation](https://dfk-paris.org/en/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871).</t>
   </si>
   <si>
     <t xml:space="preserve">help_databases</t>
   </si>
   <si>
-    <t xml:space="preserve">Im Suchschlitz können der Name oder die Wikidata-Entitätsnummer (z.&amp;nbsp;B. Q1234) eingegeben werden. Um zwei zusammengehörige Begriffe (meist Vor  und Nachname) zu suchen, ist ein »+« zwischen dem ersten und dem zweiten Begriff anzugeben (Beispiel: »Alvar +Aalto« findet nur »Alvar Aalto«, aber »Alvar + Aalto« alle Namen, die mindestens eine der beiden Komponenten enthalten).  Mit einem Stern kann eine Wildcard eingesetzt werden (»Alva*« findet alle Namen, die mit »Alva« beginnen).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the search field, the name or Wikidata identifier (e.g. Q1234) must be entered. To search for two related terms (usually first and last name), enter a plus sign (+) between the first and second term (for example: “Alvar +Aalto” would only locate “Alvar Aalto,” but “Alvar + Aalto” would locate all names containing at least one of the two components). An asterisk can be used as a wildcard (“Alva*” finds all names beginning with “Alva”).</t>
+    <t xml:space="preserve">## Suchfunktion
+Im Suchschlitz können der Name oder die Wikidata-Entitätsnummer (z.&amp;nbsp;B. Q1234) eingegeben werden. Um zwei zusammengehörige Begriffe (meist Vor  und Nachname) zu suchen, ist ein »+« zwischen dem ersten und dem zweiten Begriff anzugeben (Beispiel: »Alvar +Aalto« findet nur »Alvar Aalto«, aber »Alvar + Aalto« alle Namen, die mindestens eine der beiden Komponenten enthalten).  Mit einem Stern kann eine Wildcard eingesetzt werden (»Alva*« findet alle Namen, die mit »Alva« beginnen).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Fonction de recherche
+Dans la fenêtre de recherche, il est possible d’entrer soit le nom, soit le numéro d’entité Wikidata (ex&amp;nbsp;: Q1234). Pour rechercher deux termes liés (le cas le plus fréquent étant le prénom et le nom), il faut insérer un «&amp;nbsp;+&amp;nbsp;» entre le premier et le second terme  (exemple&amp;nbsp;: la requête «&amp;nbsp;Alvar +Aalto&amp;nbsp;» ne trouve que «&amp;nbsp;Alvar Aalto&amp;nbsp;», tandis que la requête «&amp;nbsp;Alvar + Aalto&amp;nbsp;» trouve tous les noms qui contiennent au moins l’un des deux termes. L’étoile est utilisée comme caractère générique pour remplacer une chaîne de caractères inconnus (ainsi la requête «&amp;nbsp;Alva*&amp;nbsp;» trouve-t-elle tous les mots qui commencent par «&amp;nbsp;Alva&amp;nbsp;»).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Search Function
+In the search field, the name or Wikidata identifier (e.g. Q1234) must be entered. To search for two related terms (usually first and last name), enter a plus sign (+) between the first and second term (for example: “Alvar +Aalto” would only locate “Alvar Aalto,” but “Alvar + Aalto” would locate all names containing at least one of the two components). An asterisk can be used as a wildcard (“Alva*” finds all names beginning with “Alva”).</t>
   </si>
   <si>
     <t xml:space="preserve">help_search_feature</t>
   </si>
   <si>
-    <t xml:space="preserve">Die Resultate werden pro Initiale angezeigt und gezählt. Dabei bezieht sich die Anzahl jeweils auf die fett gesetzte und unterstrichene Initiale. Jedes Resultat weist eine DFK&amp;nbsp;Paris Personen-ID auf und führt anschließend die Verweise in den Datenangeboten auf. Dabei kann es mehrere Einträge pro Datenangebot geben, die meist auf verschiedene Schreibweisen in den Quellen zurückgehen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The results are displayed and counted per initial. The number refers to the initial that is bolded and underlined. Each result has a DFK Paris Person ID and lists the references in the data inventories. There can be several entries per data inventory, usually due to different spellings in the sources.</t>
+    <t xml:space="preserve">## Resultate
+Die Resultate werden pro Initiale angezeigt und gezählt. Dabei bezieht sich die Anzahl jeweils auf die fett gesetzte und unterstrichene Initiale. Jedes Resultat weist eine DFK&amp;nbsp;Paris Personen-ID auf und führt anschließend die Verweise in den Datenangeboten auf. Dabei kann es mehrere Einträge pro Datenangebot geben, die meist auf verschiedene Schreibweisen in den Quellen zurückgehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Résultats de recherche
+Les résultats sont affichés et comptabilisés par initiale. Le chiffre affiché correspond à l’initiale mise en gras et soulignée. Chaque résultat est associé à un identifiant de personne du DFK&amp;nbsp;Paris et la liste des références dans les différentes offres de données s’affiche en-dessous. Il peut y avoir plusieurs entrées par offre de données, la raison la plus fréquente étant les graphies différentes que l’on trouve dans les sources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Results
+The results are displayed and counted per initial. The number refers to the initial that is bolded and underlined. Each result has a DFK Paris Person ID and lists the references in the data inventories. There can be several entries per data inventory, usually due to different spellings in the sources.</t>
   </si>
   <si>
     <t xml:space="preserve">help_authorship</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Die Daten können als Text-Datei über das Github-Repositorium des DFK&amp;nbsp;Paris zur freien Nutzung heruntergeladen werden [Link zu den Daten](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). Weiterhin können alle mit Wikidata referenzierten Einträge über die Eigenschaft [P11239](https://www.wikidata.org/wiki/Property:P11239&gt; dort abgefragt werden) ([Link zur Abfrage](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://w.wiki/67yh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The data can be downloaded as a text file from the GitHub repository of the DFK Paris for free use ([link to data](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). In addition, all entries referenced with Wikidata can be queried there via the property [P11239](https://www.wikidata.org/wiki/Property:P11239) ([link to the query](https://w.wiki/67yh)).</t>
+    <t xml:space="preserve">## Download und Wikidata-Eigenschaft
+Die Daten können als Text-Datei über das Github-Repositorium des DFK&amp;nbsp;Paris zur freien Nutzung heruntergeladen werden [Link zu den Daten](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). Weiterhin können alle mit Wikidata referenzierten Einträge über die Eigenschaft [P11239](https://www.wikidata.org/wiki/Property:P11239&gt; dort abgefragt werden) ([Link zur Abfrage](https://w.wiki/67yh)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Téléchargement et propriété Wikidata
+Les données peuvent être téléchargées sous forme de fichier texte via le dépôt Github du DFK&amp;nbsp;Paris ([lien vers les données](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). De plus, toutes les entrées référencées dans Wikidata peuvent être recherchées dans la base à l’aide de la propriété [P11239](https://www.wikidata.org/wiki/Property:P11239) ([lien vers la requête](https://w.wiki/67yh)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">## Downloading and Wikidata Property
+The data can be downloaded as a text file from the GitHub repository of the DFK Paris for free use ([link to data](https://github.com/dfk-paris/wikidata-entities/tree/master/data)). In addition, all entries referenced with Wikidata can be queried there via the property [P11239](https://www.wikidata.org/wiki/Property:P11239) ([link to the query](https://w.wiki/67yh)).</t>
   </si>
   <si>
     <t xml:space="preserve">help_data</t>
@@ -472,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -493,64 +328,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF1493"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,37 +372,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -637,66 +390,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF1493"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -707,19 +400,18 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="5" style="1" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="30.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,11 +421,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -743,11 +435,11 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -757,11 +449,11 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -771,11 +463,11 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,68 +477,68 @@
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -855,39 +547,39 @@
       <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -897,25 +589,25 @@
       <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -925,11 +617,11 @@
       <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -939,88 +631,100 @@
       <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="344.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="348.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="371.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="426.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="178.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="146.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="https://dfk-paris.org/en/research-project/datenkuration-am-beispiel-der-datenbank-deutsch-franz%C3%B6sische-kunstvermittlung-1871"/>
-    <hyperlink ref="B22" r:id="rId2" display="https://w.wiki/67yh"/>
-    <hyperlink ref="D22" r:id="rId3" display="https://w.wiki/67yh"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Freitextsuche: Namen oder Nummer des Wikidata Items</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche plein texte d’un nom ou du numéro d’un élément Wikidata</t>
+    <t xml:space="preserve">Recherche plein texte (nom ou Wikidata ID)</t>
   </si>
   <si>
     <t xml:space="preserve">full text search or Wikidata item</t>
@@ -394,21 +394,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1025" style="1" width="30.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t xml:space="preserve">Correspondence between Henri Fantin-Latour and Otto Scholderer, 1858-1902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunstsammlung der Académie Royale de Peinture et de Sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La collection d'art de l’Académie royale de peinture et de sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The art collection of the Académie Royale de Peinture et de Sculpture</t>
   </si>
   <si>
     <t xml:space="preserve">help_intro</t>
@@ -398,13 +410,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1" style="1" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="11.57"/>
@@ -634,7 +646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
@@ -648,7 +660,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -662,7 +674,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -676,7 +688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -690,7 +702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>76</v>
       </c>
@@ -704,7 +716,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="229.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -718,9 +730,23 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="229.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="translations" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
   <si>
     <t xml:space="preserve">key</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">OwnReality. To Each His Own Reality</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_or</t>
+  </si>
+  <si>
     <t xml:space="preserve">pb</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t xml:space="preserve">Palais Beauharnais – full inventory of the furniture, bronzes, paintings and other objects</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_pb</t>
+  </si>
+  <si>
     <t xml:space="preserve">dfkv</t>
   </si>
   <si>
@@ -106,6 +112,15 @@
     <t xml:space="preserve">german and french reception of art between 1870 and 1960</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_dfkv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutsch-französische Kunstvermittlung von 1870-1961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">german and french reception of art between 1870 and 1961</t>
+  </si>
+  <si>
     <t xml:space="preserve">babue</t>
   </si>
   <si>
@@ -118,12 +133,18 @@
     <t xml:space="preserve">Picture archive Hans-Peter Bühler on 19th and 20th century painting</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_babue</t>
+  </si>
+  <si>
     <t xml:space="preserve">wikidata</t>
   </si>
   <si>
     <t xml:space="preserve">Wikidata</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_wikidata</t>
+  </si>
+  <si>
     <t xml:space="preserve">results</t>
   </si>
   <si>
@@ -193,6 +214,9 @@
     <t xml:space="preserve">Architrave – arts and architecture in Paris and Versailles in accounts by Baroque-Era German travellers</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_av</t>
+  </si>
+  <si>
     <t xml:space="preserve">fs</t>
   </si>
   <si>
@@ -202,6 +226,15 @@
     <t xml:space="preserve">Correspondence between Henri Fantin-Latour and Otto Scholderer, 1858-1902</t>
   </si>
   <si>
+    <t xml:space="preserve">filter_fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Briefwechsel zwischen Henri Fantin-Latour und Otto Scholderer, 1858–1903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correspondence between Henri Fantin-Latour and Otto Scholderer, 1858-1903</t>
+  </si>
+  <si>
     <t xml:space="preserve">ar</t>
   </si>
   <si>
@@ -212,6 +245,9 @@
   </si>
   <si>
     <t xml:space="preserve">The art collection of the Académie Royale de Peinture et de Sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter_ar</t>
   </si>
   <si>
     <t xml:space="preserve">help_intro</t>
@@ -405,15 +441,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17:D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -492,261 +634,373 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="1" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="27" customFormat="false" ht="191.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="229.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="28" customFormat="false" ht="409.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="29" customFormat="false" ht="142.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="204" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="229.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/translations.wikidata.xlsx
+++ b/data/translations.wikidata.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">babue</t>
   </si>
   <si>
-    <t xml:space="preserve">Bildarchiv Bühler</t>
+    <t xml:space="preserve">Bildarchiv Hans-Peter Bühler zur Malerei des 19./20. Jahrhunderts</t>
   </si>
   <si>
     <t xml:space="preserve">Archives documentaires et photographiques Hans-Peter Bühler sur la peinture du 19 et 20ème siècles</t>
@@ -554,8 +554,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
